--- a/biology/Zoologie/Dolomedes_albineus/Dolomedes_albineus.xlsx
+++ b/biology/Zoologie/Dolomedes_albineus/Dolomedes_albineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes albineus est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes albineus est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre au Texas, en Louisiane, en Arkansas, au Missouri, au Kentucky, au Tennessee, au Mississippi, en Alabama, en Floride, en Géorgie, en Caroline du Sud, en Caroline du Nord, en Virginie, en Ohio et en Indiana[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre au Texas, en Louisiane, en Arkansas, au Missouri, au Kentucky, au Tennessee, au Mississippi, en Alabama, en Floride, en Géorgie, en Caroline du Sud, en Caroline du Nord, en Virginie, en Ohio et en Indiana.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hentz, 1845 : Descriptions and figures of the araneides of the United States. Boston Journal of Natural History, vol. 5, p. 189-202 (texte intégral).</t>
         </is>
